--- a/hotel.xlsx
+++ b/hotel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chentingchung/Desktop/essay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialiang.shi/github/tripAdvisor-sentiment-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CB184-A685-154D-AC63-B7F280168DB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15700" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="1180" windowWidth="28160" windowHeight="15700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>旅館名稱Hotel Name</t>
   </si>
@@ -592,17 +593,20 @@
   <si>
     <t>備註</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com.tw/Hotel_Review-g13808853-d11887991-Reviews-Green_World_Floral_Hotel-Zhongzheng_District_Taipei.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -610,14 +614,23 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -696,11 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -718,12 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,16 +742,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1011,36 +1030,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="81" style="5" customWidth="1"/>
     <col min="3" max="3" width="115.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1050,8 +1069,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,8 +1078,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1068,8 +1087,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1096,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,8 +1105,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1095,8 +1114,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1104,8 +1123,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1113,8 +1132,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1122,8 +1141,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1131,8 +1150,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1140,8 +1159,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,8 +1168,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1158,8 +1177,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1167,8 +1186,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1176,8 +1195,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1185,8 +1204,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1194,8 +1213,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1203,8 +1222,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1212,20 +1231,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1236,8 +1255,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1248,8 +1267,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1260,8 +1279,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
@@ -1272,8 +1291,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1284,8 +1303,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
@@ -1296,8 +1315,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1308,8 +1327,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
@@ -1320,8 +1339,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
@@ -1332,14 +1351,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="C31" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
@@ -1350,8 +1372,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1362,8 +1384,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1374,8 +1396,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>79</v>
       </c>
@@ -1386,8 +1408,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
@@ -1398,8 +1420,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
@@ -1410,8 +1432,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
@@ -1422,20 +1444,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>93</v>
       </c>
@@ -1443,8 +1465,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>95</v>
       </c>
@@ -1455,8 +1477,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -1464,8 +1486,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
@@ -1476,8 +1498,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
         <v>101</v>
       </c>
@@ -1488,8 +1510,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1522,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1514,8 +1536,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>108</v>
       </c>
@@ -1526,8 +1548,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>111</v>
       </c>
@@ -1538,8 +1560,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
@@ -1550,8 +1572,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>116</v>
       </c>
@@ -1562,8 +1584,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -1574,8 +1596,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>121</v>
       </c>
@@ -1586,8 +1608,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1600,8 +1622,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
@@ -1609,8 +1631,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +1643,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>130</v>
       </c>
@@ -1633,8 +1655,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+    <row r="57" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>132</v>
       </c>
@@ -1645,8 +1667,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
       <c r="B58" s="3" t="s">
         <v>135</v>
       </c>
@@ -1657,8 +1679,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+    <row r="59" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>138</v>
       </c>
@@ -1669,8 +1691,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>140</v>
       </c>
@@ -1681,8 +1703,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+    <row r="61" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
       <c r="B61" s="4" t="s">
         <v>143</v>
       </c>
@@ -1693,8 +1715,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+    <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
       <c r="B62" s="1" t="s">
         <v>146</v>
       </c>
@@ -1712,6 +1734,9 @@
     <mergeCell ref="A46:A52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C31" r:id="rId1" xr:uid="{C2548B1B-D6A3-A349-907C-2F0F2F4F7132}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>